--- a/biology/Botanique/A.Br/A.Br..xlsx
+++ b/biology/Botanique/A.Br/A.Br..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Addison Brown est un juriste, un juge et un botaniste amateur américain, né en 1830 à West Newbury (Massachusetts) et mort en 1913.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Amherst College et à l’école de droit de l'université d'Harvard où il est diplômé en 1854.
 Il est admis au barreau de New York en 1855. Il pratique jusqu’en 1881 date à laquelle il est appointé comme juge à la cour fédérale du district sud de New York. Il occupe cette fonction jusqu’à sa démission en 1901. Ses jugements, environ 1 800, ont été publiés dans The Federal Reporter, volumes VIII-CXV.
@@ -544,9 +558,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1896-1898 : avec Nathaniel Lord Britton (1859-1934), An illustrated flora of the northern United States, Canada and the British possessions : from Newfoundland to the parallel of the southern boundary of Virginia, and from the Atlantic Ocean westward to the 102d meridian (trois volumes)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1896-1898 : avec Nathaniel Lord Britton (1859-1934), An illustrated flora of the northern United States, Canada and the British possessions : from Newfoundland to the parallel of the southern boundary of Virginia, and from the Atlantic Ocean westward to the 102d meridian (trois volumes).
 1908 : The Elgin Botanical Garden and its Relation to Columbia College and the New Hampshire Grants.</t>
         </is>
       </c>
